--- a/ocr公开数据集信息.xlsx
+++ b/ocr公开数据集信息.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC94267-1EEF-44B2-8138-40A0D8443006}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC82E794-E6D4-4CBA-9B0B-344098F0DCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,12 +45,6 @@
     <t>https://rrc.cvc.uab.es/?ch=4</t>
   </si>
   <si>
-    <t>COCO-Text</t>
-  </si>
-  <si>
-    <t>https://rrc.cvc.uab.es/?ch=5</t>
-  </si>
-  <si>
     <t>json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,6 +311,13 @@
 w: 图片宽度
 name: 图片名
 value: 图片上文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bgshih.github.io/cocotext/</t>
+  </si>
+  <si>
+    <t>COCO-Text_v2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,9 +377,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -391,10 +391,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -678,314 +678,314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.92578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.92578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="45.78515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.92578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.78515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.92578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="141.44999999999999" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="141.44999999999999" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="113.15" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>15</v>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="56.6" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="56.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="13" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>46</v>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9EF61599-2AB9-4111-9716-2F8832C83861}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{F43EEC38-0211-46CD-AD55-E4B526D9244D}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{5B74D1D9-9908-417F-B4B2-AFD677A9299E}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{8F63211A-FE13-4FA3-8DD1-99D9006752B7}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{8F99226F-B867-4C7A-8E69-4734F1493194}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{124D5C6E-9F0D-401B-A4A2-C9F416C3A34D}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{4E050893-0F2E-471F-966F-0D40FF2F94B4}"/>
-    <hyperlink ref="B13" r:id="rId8" xr:uid="{E54F42CD-4E46-4988-996E-40FF440179BC}"/>
-    <hyperlink ref="B3" r:id="rId9" xr:uid="{329D7FE9-8044-4657-811C-0DA6D1C92757}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{AE45857C-5449-4BD1-9648-2B4E1BA1215D}"/>
-    <hyperlink ref="B11" r:id="rId11" display="https://tianchi.aliyun.com/competition/entrance/231684/introduction" xr:uid="{EA14593A-FD6B-4C22-83EC-1FF2B9E4DA65}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{9FCDBB19-AE84-4817-9349-4F077801B9E8}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{5B74D1D9-9908-417F-B4B2-AFD677A9299E}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{8F63211A-FE13-4FA3-8DD1-99D9006752B7}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{8F99226F-B867-4C7A-8E69-4734F1493194}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{124D5C6E-9F0D-401B-A4A2-C9F416C3A34D}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{4E050893-0F2E-471F-966F-0D40FF2F94B4}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{E54F42CD-4E46-4988-996E-40FF440179BC}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{329D7FE9-8044-4657-811C-0DA6D1C92757}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{AE45857C-5449-4BD1-9648-2B4E1BA1215D}"/>
+    <hyperlink ref="B11" r:id="rId10" display="https://tianchi.aliyun.com/competition/entrance/231684/introduction" xr:uid="{EA14593A-FD6B-4C22-83EC-1FF2B9E4DA65}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{9FCDBB19-AE84-4817-9349-4F077801B9E8}"/>
+    <hyperlink ref="B4" r:id="rId12" xr:uid="{9CBAF59E-E762-450B-B10D-C6D5292B895A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>

--- a/ocr公开数据集信息.xlsx
+++ b/ocr公开数据集信息.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC82E794-E6D4-4CBA-9B0B-344098F0DCC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD299439-9A4A-4C3F-ABF9-A38290E72FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,7 +680,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>

--- a/ocr公开数据集信息.xlsx
+++ b/ocr公开数据集信息.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD299439-9A4A-4C3F-ABF9-A38290E72FA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE1FA4-2CD6-4EA9-B4A2-26B25FA04D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文本检测" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,29 +372,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -676,25 +695,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.92578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.92578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.78515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.92578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -714,205 +736,206 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="56.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="141.44999999999999" x14ac:dyDescent="0.35">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="140" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="113.15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="112" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="84.9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="84" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="56.6" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" ht="56" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -921,17 +944,17 @@
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -941,7 +964,7 @@
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -951,7 +974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -961,7 +984,7 @@
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -988,6 +1011,6 @@
     <hyperlink ref="B4" r:id="rId12" xr:uid="{9CBAF59E-E762-450B-B10D-C6D5292B895A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>